--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_010_DepoFRAFuturesQuotes.xlsx
@@ -15,9 +15,6 @@
     <sheet name="ImmFra6M " sheetId="19" r:id="rId6"/>
     <sheet name="FuturesHWConvAdj" sheetId="14" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Currency</t>
   </si>
@@ -219,6 +216,9 @@
   <si>
     <t>x15F</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +234,7 @@
     <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -925,22 +925,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1235,7 +1219,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="13" customWidth="1"/>
@@ -1247,13 +1231,13 @@
     <col min="8" max="16384" width="8" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="94" t="s">
         <v>29</v>
@@ -1262,14 +1246,14 @@
       <c r="D2" s="95"/>
       <c r="E2" s="96"/>
     </row>
-    <row r="3" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="17"/>
       <c r="C4" s="20" t="s">
@@ -1278,7 +1262,7 @@
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="17"/>
       <c r="C5" s="20" t="s">
@@ -1289,7 +1273,7 @@
       </c>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="17"/>
       <c r="C6" s="20" t="s">
@@ -1300,7 +1284,7 @@
       </c>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="17"/>
       <c r="C7" s="20" t="s">
@@ -1311,19 +1295,18 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="17"/>
       <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" s="16" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="17"/>
       <c r="C9" s="20" t="s">
@@ -1334,15 +1317,15 @@
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" s="16" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="16" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="94" t="s">
         <v>28</v>
       </c>
@@ -1350,13 +1333,13 @@
       <c r="D12" s="95"/>
       <c r="E12" s="96"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
       <c r="C14" s="20" t="s">
         <v>0</v>
@@ -1366,7 +1349,7 @@
       </c>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="20" t="s">
         <v>23</v>
@@ -1376,7 +1359,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
       <c r="C16" s="20" t="s">
         <v>24</v>
@@ -1386,7 +1369,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
       <c r="C17" s="20" t="s">
         <v>25</v>
@@ -1396,7 +1379,7 @@
       </c>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="2:5" ht="12" thickBot="1">
+    <row r="18" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -1428,7 +1411,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="28" bestFit="1" customWidth="1"/>
@@ -1439,7 +1422,7 @@
     <col min="7" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1447,24 +1430,24 @@
       <c r="E1" s="31"/>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1">
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="71"/>
       <c r="C2" s="63" t="str">
         <f>Currency&amp;"_010_"&amp;"Deposits.xml"</f>
         <v>GBP_010_Deposits.xml</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="72" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>18</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="92" t="s">
         <v>1</v>
@@ -1483,7 +1466,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
       <c r="B4" s="92" t="s">
         <v>2</v>
@@ -1502,7 +1485,7 @@
       </c>
       <c r="F4" s="34"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="92" t="s">
         <v>3</v>
@@ -1521,7 +1504,7 @@
       </c>
       <c r="F5" s="34"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="92" t="s">
         <v>4</v>
@@ -1540,7 +1523,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="92" t="s">
         <v>5</v>
@@ -1559,7 +1542,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="92" t="s">
         <v>6</v>
@@ -1578,7 +1561,7 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="33"/>
       <c r="B9" s="92" t="s">
         <v>7</v>
@@ -1597,7 +1580,7 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="92" t="s">
         <v>8</v>
@@ -1616,7 +1599,7 @@
       </c>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="33"/>
       <c r="B11" s="92" t="s">
         <v>9</v>
@@ -1635,7 +1618,7 @@
       </c>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="92" t="s">
         <v>10</v>
@@ -1654,7 +1637,7 @@
       </c>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="92" t="s">
         <v>11</v>
@@ -1673,7 +1656,7 @@
       </c>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="92" t="s">
         <v>12</v>
@@ -1692,7 +1675,7 @@
       </c>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="92" t="s">
         <v>51</v>
@@ -1711,7 +1694,7 @@
       </c>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="92" t="s">
         <v>52</v>
@@ -1730,7 +1713,7 @@
       </c>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="92" t="s">
         <v>13</v>
@@ -1749,7 +1732,7 @@
       </c>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="92" t="s">
         <v>53</v>
@@ -1768,7 +1751,7 @@
       </c>
       <c r="F18" s="34"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="92" t="s">
         <v>54</v>
@@ -1787,7 +1770,7 @@
       </c>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="92" t="s">
         <v>14</v>
@@ -1806,7 +1789,7 @@
       </c>
       <c r="F20" s="34"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1831,7 +1814,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -1843,7 +1826,7 @@
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1852,7 +1835,7 @@
       <c r="F1"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
@@ -1860,17 +1843,17 @@
         <f>Currency&amp;"_010_"&amp;"FRA.xml"</f>
         <v>GBP_010_FRA.xml</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="80" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(E3:E26,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>24</v>
+        <v>#NUM!</v>
       </c>
       <c r="F2" s="75" t="str">
-        <f>_xll.ohRangeRetrieveError(E2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(E2)</f>
         <v/>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="81" t="s">
         <v>58</v>
@@ -1892,7 +1875,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="84" t="s">
         <v>57</v>
@@ -1914,7 +1897,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="81" t="s">
         <v>32</v>
@@ -1936,7 +1919,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="84" t="s">
         <v>34</v>
@@ -1958,7 +1941,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="81">
         <v>1</v>
@@ -1980,7 +1963,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="87">
         <v>2</v>
@@ -2002,7 +1985,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="87">
         <v>3</v>
@@ -2024,7 +2007,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="87">
         <v>4</v>
@@ -2046,7 +2029,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="87">
         <v>5</v>
@@ -2068,7 +2051,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="84">
         <v>6</v>
@@ -2090,7 +2073,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="81" t="s">
         <v>35</v>
@@ -2112,7 +2095,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="84" t="s">
         <v>36</v>
@@ -2134,7 +2117,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="81">
         <v>1</v>
@@ -2156,7 +2139,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="87">
         <v>2</v>
@@ -2178,7 +2161,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="87">
         <v>3</v>
@@ -2200,7 +2183,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="87">
         <v>4</v>
@@ -2222,7 +2205,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="87">
         <v>5</v>
@@ -2244,7 +2227,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="87">
         <v>6</v>
@@ -2266,7 +2249,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="87">
         <v>9</v>
@@ -2288,7 +2271,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="87">
         <v>12</v>
@@ -2310,7 +2293,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="84">
         <v>18</v>
@@ -2332,7 +2315,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="81" t="s">
         <v>55</v>
@@ -2354,7 +2337,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="84" t="s">
         <v>56</v>
@@ -2376,7 +2359,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="90">
         <v>12</v>
@@ -2398,7 +2381,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5" thickBot="1">
+    <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2424,7 +2407,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="28" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="28" bestFit="1" customWidth="1"/>
@@ -2437,7 +2420,7 @@
     <col min="9" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -2451,7 +2434,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="B2" s="66" t="s">
         <v>15</v>
@@ -2466,17 +2449,17 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>GBP_010_FUT1M.xml</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -2502,7 +2485,7 @@
       </c>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="56"/>
       <c r="B4" s="68">
         <v>2</v>
@@ -2527,7 +2510,7 @@
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="68">
         <v>3</v>
@@ -2552,7 +2535,7 @@
       </c>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="68">
         <v>4</v>
@@ -2577,7 +2560,7 @@
       </c>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="68">
         <v>5</v>
@@ -2602,7 +2585,7 @@
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="68">
         <v>6</v>
@@ -2627,7 +2610,7 @@
       </c>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="68">
         <v>7</v>
@@ -2652,7 +2635,7 @@
       </c>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="68">
         <v>8</v>
@@ -2677,7 +2660,7 @@
       </c>
       <c r="H10" s="55"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="68">
         <v>9</v>
@@ -2702,7 +2685,7 @@
       </c>
       <c r="H11" s="55"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
       <c r="B12" s="68">
         <v>10</v>
@@ -2727,7 +2710,7 @@
       </c>
       <c r="H12" s="55"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="68">
         <v>11</v>
@@ -2752,7 +2735,7 @@
       </c>
       <c r="H13" s="55"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
       <c r="B14" s="68">
         <v>12</v>
@@ -2777,7 +2760,7 @@
       </c>
       <c r="H14" s="55"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
       <c r="B15" s="68">
         <v>13</v>
@@ -2802,7 +2785,7 @@
       </c>
       <c r="H15" s="55"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
       <c r="B16" s="68">
         <v>14</v>
@@ -2827,7 +2810,7 @@
       </c>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
       <c r="B17" s="68">
         <v>15</v>
@@ -2852,7 +2835,7 @@
       </c>
       <c r="H17" s="55"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="68">
         <v>16</v>
@@ -2877,7 +2860,7 @@
       </c>
       <c r="H18" s="55"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="68">
         <v>17</v>
@@ -2902,7 +2885,7 @@
       </c>
       <c r="H19" s="55"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="68">
         <v>18</v>
@@ -2927,7 +2910,7 @@
       </c>
       <c r="H20" s="55"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="68">
         <v>19</v>
@@ -2952,7 +2935,7 @@
       </c>
       <c r="H21" s="55"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="68">
         <v>20</v>
@@ -2977,7 +2960,7 @@
       </c>
       <c r="H22" s="55"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="68">
         <v>21</v>
@@ -3002,7 +2985,7 @@
       </c>
       <c r="H23" s="55"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="68">
         <v>22</v>
@@ -3027,7 +3010,7 @@
       </c>
       <c r="H24" s="55"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="68">
         <v>23</v>
@@ -3052,7 +3035,7 @@
       </c>
       <c r="H25" s="55"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="68">
         <v>24</v>
@@ -3077,7 +3060,7 @@
       </c>
       <c r="H26" s="55"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="68">
         <v>25</v>
@@ -3102,7 +3085,7 @@
       </c>
       <c r="H27" s="55"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="68">
         <v>26</v>
@@ -3127,7 +3110,7 @@
       </c>
       <c r="H28" s="55"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="68">
         <v>27</v>
@@ -3152,7 +3135,7 @@
       </c>
       <c r="H29" s="55"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="68">
         <v>28</v>
@@ -3177,7 +3160,7 @@
       </c>
       <c r="H30" s="55"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="68">
         <v>29</v>
@@ -3202,7 +3185,7 @@
       </c>
       <c r="H31" s="55"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
       <c r="B32" s="68">
         <v>30</v>
@@ -3227,7 +3210,7 @@
       </c>
       <c r="H32" s="55"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="56"/>
       <c r="B33" s="68">
         <v>31</v>
@@ -3252,7 +3235,7 @@
       </c>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="68">
         <v>32</v>
@@ -3277,7 +3260,7 @@
       </c>
       <c r="H34" s="55"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="68">
         <v>33</v>
@@ -3302,7 +3285,7 @@
       </c>
       <c r="H35" s="55"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="68">
         <v>34</v>
@@ -3327,7 +3310,7 @@
       </c>
       <c r="H36" s="55"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="56"/>
       <c r="B37" s="68">
         <v>35</v>
@@ -3352,7 +3335,7 @@
       </c>
       <c r="H37" s="55"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="56"/>
       <c r="B38" s="68">
         <v>36</v>
@@ -3377,7 +3360,7 @@
       </c>
       <c r="H38" s="55"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
       <c r="B39" s="68">
         <v>37</v>
@@ -3402,7 +3385,7 @@
       </c>
       <c r="H39" s="55"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
       <c r="B40" s="68">
         <v>38</v>
@@ -3427,7 +3410,7 @@
       </c>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
       <c r="B41" s="68">
         <v>39</v>
@@ -3452,7 +3435,7 @@
       </c>
       <c r="H41" s="55"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="68">
         <v>40</v>
@@ -3477,7 +3460,7 @@
       </c>
       <c r="H42" s="55"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="68">
         <v>41</v>
@@ -3502,7 +3485,7 @@
       </c>
       <c r="H43" s="55"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="68">
         <v>42</v>
@@ -3527,7 +3510,7 @@
       </c>
       <c r="H44" s="55"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
       <c r="B45" s="68">
         <v>43</v>
@@ -3552,7 +3535,7 @@
       </c>
       <c r="H45" s="55"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
       <c r="B46" s="68">
         <v>44</v>
@@ -3577,7 +3560,7 @@
       </c>
       <c r="H46" s="55"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
       <c r="B47" s="68">
         <v>45</v>
@@ -3602,7 +3585,7 @@
       </c>
       <c r="H47" s="55"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
       <c r="B48" s="68">
         <v>46</v>
@@ -3627,7 +3610,7 @@
       </c>
       <c r="H48" s="55"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
       <c r="B49" s="68">
         <v>47</v>
@@ -3652,7 +3635,7 @@
       </c>
       <c r="H49" s="55"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
       <c r="B50" s="68">
         <v>48</v>
@@ -3677,7 +3660,7 @@
       </c>
       <c r="H50" s="55"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
       <c r="B51" s="68">
         <v>49</v>
@@ -3702,7 +3685,7 @@
       </c>
       <c r="H51" s="55"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
       <c r="B52" s="68">
         <v>50</v>
@@ -3727,7 +3710,7 @@
       </c>
       <c r="H52" s="55"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
       <c r="B53" s="68">
         <v>51</v>
@@ -3752,7 +3735,7 @@
       </c>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
       <c r="B54" s="68">
         <v>52</v>
@@ -3777,7 +3760,7 @@
       </c>
       <c r="H54" s="55"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="56"/>
       <c r="B55" s="68">
         <v>53</v>
@@ -3802,7 +3785,7 @@
       </c>
       <c r="H55" s="55"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="56"/>
       <c r="B56" s="68">
         <v>54</v>
@@ -3827,7 +3810,7 @@
       </c>
       <c r="H56" s="55"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="56"/>
       <c r="B57" s="68">
         <v>55</v>
@@ -3852,7 +3835,7 @@
       </c>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
       <c r="B58" s="68">
         <v>56</v>
@@ -3877,7 +3860,7 @@
       </c>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
       <c r="B59" s="68">
         <v>57</v>
@@ -3902,7 +3885,7 @@
       </c>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="56"/>
       <c r="B60" s="68">
         <v>58</v>
@@ -3927,7 +3910,7 @@
       </c>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="56"/>
       <c r="B61" s="68">
         <v>59</v>
@@ -3952,7 +3935,7 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="56"/>
       <c r="B62" s="68">
         <v>60</v>
@@ -3977,7 +3960,7 @@
       </c>
       <c r="H62" s="55"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="56"/>
       <c r="B63" s="68">
         <v>61</v>
@@ -4002,7 +3985,7 @@
       </c>
       <c r="H63" s="55"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="56"/>
       <c r="B64" s="68">
         <v>62</v>
@@ -4027,7 +4010,7 @@
       </c>
       <c r="H64" s="55"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="56"/>
       <c r="B65" s="68">
         <v>63</v>
@@ -4052,7 +4035,7 @@
       </c>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="56"/>
       <c r="B66" s="68">
         <v>64</v>
@@ -4077,7 +4060,7 @@
       </c>
       <c r="H66" s="55"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="56"/>
       <c r="B67" s="68">
         <v>65</v>
@@ -4102,7 +4085,7 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="56"/>
       <c r="B68" s="68">
         <v>66</v>
@@ -4127,7 +4110,7 @@
       </c>
       <c r="H68" s="55"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="56"/>
       <c r="B69" s="68">
         <v>67</v>
@@ -4152,7 +4135,7 @@
       </c>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="56"/>
       <c r="B70" s="68">
         <v>68</v>
@@ -4177,7 +4160,7 @@
       </c>
       <c r="H70" s="55"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="56"/>
       <c r="B71" s="68">
         <v>69</v>
@@ -4202,7 +4185,7 @@
       </c>
       <c r="H71" s="55"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="56"/>
       <c r="B72" s="68">
         <v>70</v>
@@ -4227,7 +4210,7 @@
       </c>
       <c r="H72" s="55"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="56"/>
       <c r="B73" s="68">
         <v>71</v>
@@ -4252,7 +4235,7 @@
       </c>
       <c r="H73" s="55"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="56"/>
       <c r="B74" s="68">
         <v>72</v>
@@ -4277,7 +4260,7 @@
       </c>
       <c r="H74" s="55"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="56"/>
       <c r="B75" s="68">
         <v>73</v>
@@ -4302,7 +4285,7 @@
       </c>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="56"/>
       <c r="B76" s="68">
         <v>74</v>
@@ -4327,7 +4310,7 @@
       </c>
       <c r="H76" s="55"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="56"/>
       <c r="B77" s="68">
         <v>75</v>
@@ -4352,7 +4335,7 @@
       </c>
       <c r="H77" s="55"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="56"/>
       <c r="B78" s="68">
         <v>76</v>
@@ -4377,7 +4360,7 @@
       </c>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="56"/>
       <c r="B79" s="68">
         <v>77</v>
@@ -4402,7 +4385,7 @@
       </c>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="56"/>
       <c r="B80" s="68">
         <v>78</v>
@@ -4427,7 +4410,7 @@
       </c>
       <c r="H80" s="55"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="56"/>
       <c r="B81" s="68">
         <v>79</v>
@@ -4452,7 +4435,7 @@
       </c>
       <c r="H81" s="55"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="56"/>
       <c r="B82" s="68">
         <v>80</v>
@@ -4477,7 +4460,7 @@
       </c>
       <c r="H82" s="55"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="56"/>
       <c r="B83" s="68">
         <v>81</v>
@@ -4502,7 +4485,7 @@
       </c>
       <c r="H83" s="55"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="56"/>
       <c r="B84" s="68">
         <v>82</v>
@@ -4527,7 +4510,7 @@
       </c>
       <c r="H84" s="55"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="56"/>
       <c r="B85" s="68">
         <v>83</v>
@@ -4552,7 +4535,7 @@
       </c>
       <c r="H85" s="55"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="56"/>
       <c r="B86" s="68">
         <v>84</v>
@@ -4577,7 +4560,7 @@
       </c>
       <c r="H86" s="55"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="56"/>
       <c r="B87" s="68">
         <v>85</v>
@@ -4602,7 +4585,7 @@
       </c>
       <c r="H87" s="55"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="56"/>
       <c r="B88" s="68">
         <v>86</v>
@@ -4627,7 +4610,7 @@
       </c>
       <c r="H88" s="55"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="56"/>
       <c r="B89" s="68">
         <v>87</v>
@@ -4652,7 +4635,7 @@
       </c>
       <c r="H89" s="55"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="56"/>
       <c r="B90" s="68">
         <v>88</v>
@@ -4677,7 +4660,7 @@
       </c>
       <c r="H90" s="55"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="56"/>
       <c r="B91" s="68">
         <v>89</v>
@@ -4702,7 +4685,7 @@
       </c>
       <c r="H91" s="55"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="56"/>
       <c r="B92" s="68">
         <v>90</v>
@@ -4727,7 +4710,7 @@
       </c>
       <c r="H92" s="55"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="56"/>
       <c r="B93" s="68">
         <v>91</v>
@@ -4752,7 +4735,7 @@
       </c>
       <c r="H93" s="55"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="56"/>
       <c r="B94" s="68">
         <v>92</v>
@@ -4777,7 +4760,7 @@
       </c>
       <c r="H94" s="55"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="56"/>
       <c r="B95" s="68">
         <v>93</v>
@@ -4802,7 +4785,7 @@
       </c>
       <c r="H95" s="55"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="56"/>
       <c r="B96" s="68">
         <v>94</v>
@@ -4827,7 +4810,7 @@
       </c>
       <c r="H96" s="55"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="56"/>
       <c r="B97" s="68">
         <v>95</v>
@@ -4852,7 +4835,7 @@
       </c>
       <c r="H97" s="55"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="56"/>
       <c r="B98" s="68">
         <v>96</v>
@@ -4877,7 +4860,7 @@
       </c>
       <c r="H98" s="55"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="56"/>
       <c r="B99" s="68">
         <v>97</v>
@@ -4902,7 +4885,7 @@
       </c>
       <c r="H99" s="55"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="56"/>
       <c r="B100" s="68">
         <v>98</v>
@@ -4927,7 +4910,7 @@
       </c>
       <c r="H100" s="55"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="56"/>
       <c r="B101" s="68">
         <v>99</v>
@@ -4952,7 +4935,7 @@
       </c>
       <c r="H101" s="55"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="56"/>
       <c r="B102" s="68">
         <v>100</v>
@@ -4977,7 +4960,7 @@
       </c>
       <c r="H102" s="55"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="56"/>
       <c r="B103" s="68">
         <v>101</v>
@@ -5002,7 +4985,7 @@
       </c>
       <c r="H103" s="55"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="56"/>
       <c r="B104" s="68">
         <v>102</v>
@@ -5027,7 +5010,7 @@
       </c>
       <c r="H104" s="55"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="56"/>
       <c r="B105" s="68">
         <v>103</v>
@@ -5052,7 +5035,7 @@
       </c>
       <c r="H105" s="55"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="56"/>
       <c r="B106" s="68">
         <v>104</v>
@@ -5077,7 +5060,7 @@
       </c>
       <c r="H106" s="55"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="56"/>
       <c r="B107" s="68">
         <v>105</v>
@@ -5102,7 +5085,7 @@
       </c>
       <c r="H107" s="55"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="56"/>
       <c r="B108" s="68">
         <v>106</v>
@@ -5127,7 +5110,7 @@
       </c>
       <c r="H108" s="55"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="56"/>
       <c r="B109" s="68">
         <v>107</v>
@@ -5152,7 +5135,7 @@
       </c>
       <c r="H109" s="55"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="56"/>
       <c r="B110" s="68">
         <v>108</v>
@@ -5177,7 +5160,7 @@
       </c>
       <c r="H110" s="55"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="56"/>
       <c r="B111" s="68">
         <v>109</v>
@@ -5202,7 +5185,7 @@
       </c>
       <c r="H111" s="55"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="56"/>
       <c r="B112" s="68">
         <v>110</v>
@@ -5227,7 +5210,7 @@
       </c>
       <c r="H112" s="55"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="56"/>
       <c r="B113" s="68">
         <v>111</v>
@@ -5252,7 +5235,7 @@
       </c>
       <c r="H113" s="55"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="56"/>
       <c r="B114" s="68">
         <v>112</v>
@@ -5277,7 +5260,7 @@
       </c>
       <c r="H114" s="55"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="56"/>
       <c r="B115" s="68">
         <v>113</v>
@@ -5302,7 +5285,7 @@
       </c>
       <c r="H115" s="55"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="56"/>
       <c r="B116" s="68">
         <v>114</v>
@@ -5327,7 +5310,7 @@
       </c>
       <c r="H116" s="55"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="56"/>
       <c r="B117" s="68">
         <v>115</v>
@@ -5352,7 +5335,7 @@
       </c>
       <c r="H117" s="55"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="56"/>
       <c r="B118" s="68">
         <v>116</v>
@@ -5377,7 +5360,7 @@
       </c>
       <c r="H118" s="55"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="56"/>
       <c r="B119" s="68">
         <v>117</v>
@@ -5402,7 +5385,7 @@
       </c>
       <c r="H119" s="55"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="56"/>
       <c r="B120" s="68">
         <v>118</v>
@@ -5427,7 +5410,7 @@
       </c>
       <c r="H120" s="55"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="56"/>
       <c r="B121" s="68">
         <v>119</v>
@@ -5452,7 +5435,7 @@
       </c>
       <c r="H121" s="55"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="56"/>
       <c r="B122" s="68">
         <v>120</v>
@@ -5477,7 +5460,7 @@
       </c>
       <c r="H122" s="55"/>
     </row>
-    <row r="123" spans="1:8" ht="12" thickBot="1">
+    <row r="123" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57"/>
       <c r="B123" s="58"/>
       <c r="C123" s="58"/>
@@ -5504,7 +5487,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="28" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="28" bestFit="1" customWidth="1"/>
@@ -5517,7 +5500,7 @@
     <col min="9" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -5531,7 +5514,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="B2" s="66" t="s">
         <v>15</v>
@@ -5546,17 +5529,17 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>GBP_010_FUT3M.xml</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -5582,7 +5565,7 @@
       </c>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="56"/>
       <c r="B4" s="68">
         <v>2</v>
@@ -5607,7 +5590,7 @@
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="68">
         <v>3</v>
@@ -5632,7 +5615,7 @@
       </c>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="68">
         <v>4</v>
@@ -5657,7 +5640,7 @@
       </c>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="68">
         <v>5</v>
@@ -5682,7 +5665,7 @@
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="68">
         <v>6</v>
@@ -5707,7 +5690,7 @@
       </c>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="68">
         <v>7</v>
@@ -5732,7 +5715,7 @@
       </c>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="68">
         <v>8</v>
@@ -5757,7 +5740,7 @@
       </c>
       <c r="H10" s="55"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="68">
         <v>9</v>
@@ -5782,7 +5765,7 @@
       </c>
       <c r="H11" s="55"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
       <c r="B12" s="68">
         <v>10</v>
@@ -5807,7 +5790,7 @@
       </c>
       <c r="H12" s="55"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="68">
         <v>11</v>
@@ -5832,7 +5815,7 @@
       </c>
       <c r="H13" s="55"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
       <c r="B14" s="68">
         <v>12</v>
@@ -5857,7 +5840,7 @@
       </c>
       <c r="H14" s="55"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
       <c r="B15" s="68">
         <v>13</v>
@@ -5882,7 +5865,7 @@
       </c>
       <c r="H15" s="55"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
       <c r="B16" s="68">
         <v>14</v>
@@ -5907,7 +5890,7 @@
       </c>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
       <c r="B17" s="68">
         <v>15</v>
@@ -5932,7 +5915,7 @@
       </c>
       <c r="H17" s="55"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="68">
         <v>16</v>
@@ -5957,7 +5940,7 @@
       </c>
       <c r="H18" s="55"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="68">
         <v>17</v>
@@ -5982,7 +5965,7 @@
       </c>
       <c r="H19" s="55"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="68">
         <v>18</v>
@@ -6007,7 +5990,7 @@
       </c>
       <c r="H20" s="55"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="68">
         <v>19</v>
@@ -6032,7 +6015,7 @@
       </c>
       <c r="H21" s="55"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="68">
         <v>20</v>
@@ -6057,7 +6040,7 @@
       </c>
       <c r="H22" s="55"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="68">
         <v>21</v>
@@ -6082,7 +6065,7 @@
       </c>
       <c r="H23" s="55"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="68">
         <v>22</v>
@@ -6107,7 +6090,7 @@
       </c>
       <c r="H24" s="55"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="68">
         <v>23</v>
@@ -6132,7 +6115,7 @@
       </c>
       <c r="H25" s="55"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="68">
         <v>24</v>
@@ -6157,7 +6140,7 @@
       </c>
       <c r="H26" s="55"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="68">
         <v>25</v>
@@ -6182,7 +6165,7 @@
       </c>
       <c r="H27" s="55"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="68">
         <v>26</v>
@@ -6207,7 +6190,7 @@
       </c>
       <c r="H28" s="55"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="68">
         <v>27</v>
@@ -6232,7 +6215,7 @@
       </c>
       <c r="H29" s="55"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="68">
         <v>28</v>
@@ -6257,7 +6240,7 @@
       </c>
       <c r="H30" s="55"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="68">
         <v>29</v>
@@ -6282,7 +6265,7 @@
       </c>
       <c r="H31" s="55"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
       <c r="B32" s="68">
         <v>30</v>
@@ -6307,7 +6290,7 @@
       </c>
       <c r="H32" s="55"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="56"/>
       <c r="B33" s="68">
         <v>31</v>
@@ -6332,7 +6315,7 @@
       </c>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="68">
         <v>32</v>
@@ -6357,7 +6340,7 @@
       </c>
       <c r="H34" s="55"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="68">
         <v>33</v>
@@ -6382,7 +6365,7 @@
       </c>
       <c r="H35" s="55"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="68">
         <v>34</v>
@@ -6407,7 +6390,7 @@
       </c>
       <c r="H36" s="55"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="56"/>
       <c r="B37" s="68">
         <v>35</v>
@@ -6432,7 +6415,7 @@
       </c>
       <c r="H37" s="55"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="56"/>
       <c r="B38" s="68">
         <v>36</v>
@@ -6457,7 +6440,7 @@
       </c>
       <c r="H38" s="55"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
       <c r="B39" s="68">
         <v>37</v>
@@ -6482,7 +6465,7 @@
       </c>
       <c r="H39" s="55"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
       <c r="B40" s="68">
         <v>38</v>
@@ -6507,7 +6490,7 @@
       </c>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
       <c r="B41" s="68">
         <v>39</v>
@@ -6532,7 +6515,7 @@
       </c>
       <c r="H41" s="55"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="68">
         <v>40</v>
@@ -6557,7 +6540,7 @@
       </c>
       <c r="H42" s="55"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="68">
         <v>41</v>
@@ -6582,7 +6565,7 @@
       </c>
       <c r="H43" s="55"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="68">
         <v>42</v>
@@ -6607,7 +6590,7 @@
       </c>
       <c r="H44" s="55"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
       <c r="B45" s="68">
         <v>43</v>
@@ -6632,7 +6615,7 @@
       </c>
       <c r="H45" s="55"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
       <c r="B46" s="68">
         <v>44</v>
@@ -6657,7 +6640,7 @@
       </c>
       <c r="H46" s="55"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
       <c r="B47" s="68">
         <v>45</v>
@@ -6682,7 +6665,7 @@
       </c>
       <c r="H47" s="55"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
       <c r="B48" s="68">
         <v>46</v>
@@ -6707,7 +6690,7 @@
       </c>
       <c r="H48" s="55"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
       <c r="B49" s="68">
         <v>47</v>
@@ -6732,7 +6715,7 @@
       </c>
       <c r="H49" s="55"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
       <c r="B50" s="68">
         <v>48</v>
@@ -6757,7 +6740,7 @@
       </c>
       <c r="H50" s="55"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
       <c r="B51" s="68">
         <v>49</v>
@@ -6782,7 +6765,7 @@
       </c>
       <c r="H51" s="55"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
       <c r="B52" s="68">
         <v>50</v>
@@ -6807,7 +6790,7 @@
       </c>
       <c r="H52" s="55"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
       <c r="B53" s="68">
         <v>51</v>
@@ -6832,7 +6815,7 @@
       </c>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
       <c r="B54" s="68">
         <v>52</v>
@@ -6857,7 +6840,7 @@
       </c>
       <c r="H54" s="55"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="56"/>
       <c r="B55" s="68">
         <v>53</v>
@@ -6882,7 +6865,7 @@
       </c>
       <c r="H55" s="55"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="56"/>
       <c r="B56" s="68">
         <v>54</v>
@@ -6907,7 +6890,7 @@
       </c>
       <c r="H56" s="55"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="56"/>
       <c r="B57" s="68">
         <v>55</v>
@@ -6932,7 +6915,7 @@
       </c>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
       <c r="B58" s="68">
         <v>56</v>
@@ -6957,7 +6940,7 @@
       </c>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
       <c r="B59" s="68">
         <v>57</v>
@@ -6982,7 +6965,7 @@
       </c>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="56"/>
       <c r="B60" s="68">
         <v>58</v>
@@ -7007,7 +6990,7 @@
       </c>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="56"/>
       <c r="B61" s="68">
         <v>59</v>
@@ -7032,7 +7015,7 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="56"/>
       <c r="B62" s="68">
         <v>60</v>
@@ -7057,7 +7040,7 @@
       </c>
       <c r="H62" s="55"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="56"/>
       <c r="B63" s="68">
         <v>61</v>
@@ -7082,7 +7065,7 @@
       </c>
       <c r="H63" s="55"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="56"/>
       <c r="B64" s="68">
         <v>62</v>
@@ -7107,7 +7090,7 @@
       </c>
       <c r="H64" s="55"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="56"/>
       <c r="B65" s="68">
         <v>63</v>
@@ -7132,7 +7115,7 @@
       </c>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="56"/>
       <c r="B66" s="68">
         <v>64</v>
@@ -7157,7 +7140,7 @@
       </c>
       <c r="H66" s="55"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="56"/>
       <c r="B67" s="68">
         <v>65</v>
@@ -7182,7 +7165,7 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="56"/>
       <c r="B68" s="68">
         <v>66</v>
@@ -7207,7 +7190,7 @@
       </c>
       <c r="H68" s="55"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="56"/>
       <c r="B69" s="68">
         <v>67</v>
@@ -7232,7 +7215,7 @@
       </c>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="56"/>
       <c r="B70" s="68">
         <v>68</v>
@@ -7257,7 +7240,7 @@
       </c>
       <c r="H70" s="55"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="56"/>
       <c r="B71" s="68">
         <v>69</v>
@@ -7282,7 +7265,7 @@
       </c>
       <c r="H71" s="55"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="56"/>
       <c r="B72" s="68">
         <v>70</v>
@@ -7307,7 +7290,7 @@
       </c>
       <c r="H72" s="55"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="56"/>
       <c r="B73" s="68">
         <v>71</v>
@@ -7332,7 +7315,7 @@
       </c>
       <c r="H73" s="55"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="56"/>
       <c r="B74" s="68">
         <v>72</v>
@@ -7357,7 +7340,7 @@
       </c>
       <c r="H74" s="55"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="56"/>
       <c r="B75" s="68">
         <v>73</v>
@@ -7382,7 +7365,7 @@
       </c>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="56"/>
       <c r="B76" s="68">
         <v>74</v>
@@ -7407,7 +7390,7 @@
       </c>
       <c r="H76" s="55"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="56"/>
       <c r="B77" s="68">
         <v>75</v>
@@ -7432,7 +7415,7 @@
       </c>
       <c r="H77" s="55"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="56"/>
       <c r="B78" s="68">
         <v>76</v>
@@ -7457,7 +7440,7 @@
       </c>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="56"/>
       <c r="B79" s="68">
         <v>77</v>
@@ -7482,7 +7465,7 @@
       </c>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="56"/>
       <c r="B80" s="68">
         <v>78</v>
@@ -7507,7 +7490,7 @@
       </c>
       <c r="H80" s="55"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="56"/>
       <c r="B81" s="68">
         <v>79</v>
@@ -7532,7 +7515,7 @@
       </c>
       <c r="H81" s="55"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="56"/>
       <c r="B82" s="68">
         <v>80</v>
@@ -7557,7 +7540,7 @@
       </c>
       <c r="H82" s="55"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="56"/>
       <c r="B83" s="68">
         <v>81</v>
@@ -7582,7 +7565,7 @@
       </c>
       <c r="H83" s="55"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="56"/>
       <c r="B84" s="68">
         <v>82</v>
@@ -7607,7 +7590,7 @@
       </c>
       <c r="H84" s="55"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="56"/>
       <c r="B85" s="68">
         <v>83</v>
@@ -7632,7 +7615,7 @@
       </c>
       <c r="H85" s="55"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="56"/>
       <c r="B86" s="68">
         <v>84</v>
@@ -7657,7 +7640,7 @@
       </c>
       <c r="H86" s="55"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="56"/>
       <c r="B87" s="68">
         <v>85</v>
@@ -7682,7 +7665,7 @@
       </c>
       <c r="H87" s="55"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="56"/>
       <c r="B88" s="68">
         <v>86</v>
@@ -7707,7 +7690,7 @@
       </c>
       <c r="H88" s="55"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="56"/>
       <c r="B89" s="68">
         <v>87</v>
@@ -7732,7 +7715,7 @@
       </c>
       <c r="H89" s="55"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="56"/>
       <c r="B90" s="68">
         <v>88</v>
@@ -7757,7 +7740,7 @@
       </c>
       <c r="H90" s="55"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="56"/>
       <c r="B91" s="68">
         <v>89</v>
@@ -7782,7 +7765,7 @@
       </c>
       <c r="H91" s="55"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="56"/>
       <c r="B92" s="68">
         <v>90</v>
@@ -7807,7 +7790,7 @@
       </c>
       <c r="H92" s="55"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="56"/>
       <c r="B93" s="68">
         <v>91</v>
@@ -7832,7 +7815,7 @@
       </c>
       <c r="H93" s="55"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="56"/>
       <c r="B94" s="68">
         <v>92</v>
@@ -7857,7 +7840,7 @@
       </c>
       <c r="H94" s="55"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="56"/>
       <c r="B95" s="68">
         <v>93</v>
@@ -7882,7 +7865,7 @@
       </c>
       <c r="H95" s="55"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="56"/>
       <c r="B96" s="68">
         <v>94</v>
@@ -7907,7 +7890,7 @@
       </c>
       <c r="H96" s="55"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="56"/>
       <c r="B97" s="68">
         <v>95</v>
@@ -7932,7 +7915,7 @@
       </c>
       <c r="H97" s="55"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="56"/>
       <c r="B98" s="68">
         <v>96</v>
@@ -7957,7 +7940,7 @@
       </c>
       <c r="H98" s="55"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="56"/>
       <c r="B99" s="68">
         <v>97</v>
@@ -7982,7 +7965,7 @@
       </c>
       <c r="H99" s="55"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="56"/>
       <c r="B100" s="68">
         <v>98</v>
@@ -8007,7 +7990,7 @@
       </c>
       <c r="H100" s="55"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="56"/>
       <c r="B101" s="68">
         <v>99</v>
@@ -8032,7 +8015,7 @@
       </c>
       <c r="H101" s="55"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="56"/>
       <c r="B102" s="68">
         <v>100</v>
@@ -8057,7 +8040,7 @@
       </c>
       <c r="H102" s="55"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="56"/>
       <c r="B103" s="68">
         <v>101</v>
@@ -8082,7 +8065,7 @@
       </c>
       <c r="H103" s="55"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="56"/>
       <c r="B104" s="68">
         <v>102</v>
@@ -8107,7 +8090,7 @@
       </c>
       <c r="H104" s="55"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="56"/>
       <c r="B105" s="68">
         <v>103</v>
@@ -8132,7 +8115,7 @@
       </c>
       <c r="H105" s="55"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="56"/>
       <c r="B106" s="68">
         <v>104</v>
@@ -8157,7 +8140,7 @@
       </c>
       <c r="H106" s="55"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="56"/>
       <c r="B107" s="68">
         <v>105</v>
@@ -8182,7 +8165,7 @@
       </c>
       <c r="H107" s="55"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="56"/>
       <c r="B108" s="68">
         <v>106</v>
@@ -8207,7 +8190,7 @@
       </c>
       <c r="H108" s="55"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="56"/>
       <c r="B109" s="68">
         <v>107</v>
@@ -8232,7 +8215,7 @@
       </c>
       <c r="H109" s="55"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="56"/>
       <c r="B110" s="68">
         <v>108</v>
@@ -8257,7 +8240,7 @@
       </c>
       <c r="H110" s="55"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="56"/>
       <c r="B111" s="68">
         <v>109</v>
@@ -8282,7 +8265,7 @@
       </c>
       <c r="H111" s="55"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="56"/>
       <c r="B112" s="68">
         <v>110</v>
@@ -8307,7 +8290,7 @@
       </c>
       <c r="H112" s="55"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="56"/>
       <c r="B113" s="68">
         <v>111</v>
@@ -8332,7 +8315,7 @@
       </c>
       <c r="H113" s="55"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="56"/>
       <c r="B114" s="68">
         <v>112</v>
@@ -8357,7 +8340,7 @@
       </c>
       <c r="H114" s="55"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="56"/>
       <c r="B115" s="68">
         <v>113</v>
@@ -8382,7 +8365,7 @@
       </c>
       <c r="H115" s="55"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="56"/>
       <c r="B116" s="68">
         <v>114</v>
@@ -8407,7 +8390,7 @@
       </c>
       <c r="H116" s="55"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="56"/>
       <c r="B117" s="68">
         <v>115</v>
@@ -8432,7 +8415,7 @@
       </c>
       <c r="H117" s="55"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="56"/>
       <c r="B118" s="68">
         <v>116</v>
@@ -8457,7 +8440,7 @@
       </c>
       <c r="H118" s="55"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="56"/>
       <c r="B119" s="68">
         <v>117</v>
@@ -8482,7 +8465,7 @@
       </c>
       <c r="H119" s="55"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="56"/>
       <c r="B120" s="68">
         <v>118</v>
@@ -8507,7 +8490,7 @@
       </c>
       <c r="H120" s="55"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="56"/>
       <c r="B121" s="68">
         <v>119</v>
@@ -8532,7 +8515,7 @@
       </c>
       <c r="H121" s="55"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="56"/>
       <c r="B122" s="68">
         <v>120</v>
@@ -8557,7 +8540,7 @@
       </c>
       <c r="H122" s="55"/>
     </row>
-    <row r="123" spans="1:8" ht="12" thickBot="1">
+    <row r="123" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57"/>
       <c r="B123" s="58"/>
       <c r="C123" s="58"/>
@@ -8584,7 +8567,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="28" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="28" bestFit="1" customWidth="1"/>
@@ -8597,7 +8580,7 @@
     <col min="9" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="49"/>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -8611,7 +8594,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="B2" s="66" t="s">
         <v>15</v>
@@ -8626,17 +8609,17 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>GBP_010_IMMFRA6M.xml</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="56"/>
       <c r="B3" s="67">
         <v>1</v>
@@ -8662,7 +8645,7 @@
       </c>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="56"/>
       <c r="B4" s="68">
         <v>2</v>
@@ -8687,7 +8670,7 @@
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="68">
         <v>3</v>
@@ -8712,7 +8695,7 @@
       </c>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="68">
         <v>4</v>
@@ -8737,7 +8720,7 @@
       </c>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="68">
         <v>5</v>
@@ -8762,7 +8745,7 @@
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="68">
         <v>6</v>
@@ -8787,7 +8770,7 @@
       </c>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="68">
         <v>7</v>
@@ -8812,7 +8795,7 @@
       </c>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="68">
         <v>8</v>
@@ -8837,7 +8820,7 @@
       </c>
       <c r="H10" s="55"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="56"/>
       <c r="B11" s="68">
         <v>9</v>
@@ -8862,7 +8845,7 @@
       </c>
       <c r="H11" s="55"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="56"/>
       <c r="B12" s="68">
         <v>10</v>
@@ -8887,7 +8870,7 @@
       </c>
       <c r="H12" s="55"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="68">
         <v>11</v>
@@ -8912,7 +8895,7 @@
       </c>
       <c r="H13" s="55"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
       <c r="B14" s="68">
         <v>12</v>
@@ -8937,7 +8920,7 @@
       </c>
       <c r="H14" s="55"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
       <c r="B15" s="68">
         <v>13</v>
@@ -8962,7 +8945,7 @@
       </c>
       <c r="H15" s="55"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
       <c r="B16" s="68">
         <v>14</v>
@@ -8987,7 +8970,7 @@
       </c>
       <c r="H16" s="55"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
       <c r="B17" s="68">
         <v>15</v>
@@ -9012,7 +8995,7 @@
       </c>
       <c r="H17" s="55"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="68">
         <v>16</v>
@@ -9037,7 +9020,7 @@
       </c>
       <c r="H18" s="55"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="68">
         <v>17</v>
@@ -9062,7 +9045,7 @@
       </c>
       <c r="H19" s="55"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="68">
         <v>18</v>
@@ -9087,7 +9070,7 @@
       </c>
       <c r="H20" s="55"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="68">
         <v>19</v>
@@ -9112,7 +9095,7 @@
       </c>
       <c r="H21" s="55"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="68">
         <v>20</v>
@@ -9137,7 +9120,7 @@
       </c>
       <c r="H22" s="55"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="68">
         <v>21</v>
@@ -9162,7 +9145,7 @@
       </c>
       <c r="H23" s="55"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="68">
         <v>22</v>
@@ -9187,7 +9170,7 @@
       </c>
       <c r="H24" s="55"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="68">
         <v>23</v>
@@ -9212,7 +9195,7 @@
       </c>
       <c r="H25" s="55"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="68">
         <v>24</v>
@@ -9237,7 +9220,7 @@
       </c>
       <c r="H26" s="55"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="68">
         <v>25</v>
@@ -9262,7 +9245,7 @@
       </c>
       <c r="H27" s="55"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="68">
         <v>26</v>
@@ -9287,7 +9270,7 @@
       </c>
       <c r="H28" s="55"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="68">
         <v>27</v>
@@ -9312,7 +9295,7 @@
       </c>
       <c r="H29" s="55"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="68">
         <v>28</v>
@@ -9337,7 +9320,7 @@
       </c>
       <c r="H30" s="55"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="68">
         <v>29</v>
@@ -9362,7 +9345,7 @@
       </c>
       <c r="H31" s="55"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
       <c r="B32" s="68">
         <v>30</v>
@@ -9387,7 +9370,7 @@
       </c>
       <c r="H32" s="55"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="56"/>
       <c r="B33" s="68">
         <v>31</v>
@@ -9412,7 +9395,7 @@
       </c>
       <c r="H33" s="55"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="68">
         <v>32</v>
@@ -9437,7 +9420,7 @@
       </c>
       <c r="H34" s="55"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="68">
         <v>33</v>
@@ -9462,7 +9445,7 @@
       </c>
       <c r="H35" s="55"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="68">
         <v>34</v>
@@ -9487,7 +9470,7 @@
       </c>
       <c r="H36" s="55"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="56"/>
       <c r="B37" s="68">
         <v>35</v>
@@ -9512,7 +9495,7 @@
       </c>
       <c r="H37" s="55"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="56"/>
       <c r="B38" s="68">
         <v>36</v>
@@ -9537,7 +9520,7 @@
       </c>
       <c r="H38" s="55"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
       <c r="B39" s="68">
         <v>37</v>
@@ -9562,7 +9545,7 @@
       </c>
       <c r="H39" s="55"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
       <c r="B40" s="68">
         <v>38</v>
@@ -9587,7 +9570,7 @@
       </c>
       <c r="H40" s="55"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
       <c r="B41" s="68">
         <v>39</v>
@@ -9612,7 +9595,7 @@
       </c>
       <c r="H41" s="55"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="68">
         <v>40</v>
@@ -9637,7 +9620,7 @@
       </c>
       <c r="H42" s="55"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="68">
         <v>41</v>
@@ -9662,7 +9645,7 @@
       </c>
       <c r="H43" s="55"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="68">
         <v>42</v>
@@ -9687,7 +9670,7 @@
       </c>
       <c r="H44" s="55"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
       <c r="B45" s="68">
         <v>43</v>
@@ -9712,7 +9695,7 @@
       </c>
       <c r="H45" s="55"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
       <c r="B46" s="68">
         <v>44</v>
@@ -9737,7 +9720,7 @@
       </c>
       <c r="H46" s="55"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
       <c r="B47" s="68">
         <v>45</v>
@@ -9762,7 +9745,7 @@
       </c>
       <c r="H47" s="55"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
       <c r="B48" s="68">
         <v>46</v>
@@ -9787,7 +9770,7 @@
       </c>
       <c r="H48" s="55"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
       <c r="B49" s="68">
         <v>47</v>
@@ -9812,7 +9795,7 @@
       </c>
       <c r="H49" s="55"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
       <c r="B50" s="68">
         <v>48</v>
@@ -9837,7 +9820,7 @@
       </c>
       <c r="H50" s="55"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
       <c r="B51" s="68">
         <v>49</v>
@@ -9862,7 +9845,7 @@
       </c>
       <c r="H51" s="55"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
       <c r="B52" s="68">
         <v>50</v>
@@ -9887,7 +9870,7 @@
       </c>
       <c r="H52" s="55"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
       <c r="B53" s="68">
         <v>51</v>
@@ -9912,7 +9895,7 @@
       </c>
       <c r="H53" s="55"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
       <c r="B54" s="68">
         <v>52</v>
@@ -9937,7 +9920,7 @@
       </c>
       <c r="H54" s="55"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="56"/>
       <c r="B55" s="68">
         <v>53</v>
@@ -9962,7 +9945,7 @@
       </c>
       <c r="H55" s="55"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="56"/>
       <c r="B56" s="68">
         <v>54</v>
@@ -9987,7 +9970,7 @@
       </c>
       <c r="H56" s="55"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="56"/>
       <c r="B57" s="68">
         <v>55</v>
@@ -10012,7 +9995,7 @@
       </c>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
       <c r="B58" s="68">
         <v>56</v>
@@ -10037,7 +10020,7 @@
       </c>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
       <c r="B59" s="68">
         <v>57</v>
@@ -10062,7 +10045,7 @@
       </c>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="56"/>
       <c r="B60" s="68">
         <v>58</v>
@@ -10087,7 +10070,7 @@
       </c>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="56"/>
       <c r="B61" s="68">
         <v>59</v>
@@ -10112,7 +10095,7 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="56"/>
       <c r="B62" s="68">
         <v>60</v>
@@ -10137,7 +10120,7 @@
       </c>
       <c r="H62" s="55"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="56"/>
       <c r="B63" s="68">
         <v>61</v>
@@ -10162,7 +10145,7 @@
       </c>
       <c r="H63" s="55"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="56"/>
       <c r="B64" s="68">
         <v>62</v>
@@ -10187,7 +10170,7 @@
       </c>
       <c r="H64" s="55"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="56"/>
       <c r="B65" s="68">
         <v>63</v>
@@ -10212,7 +10195,7 @@
       </c>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="56"/>
       <c r="B66" s="68">
         <v>64</v>
@@ -10237,7 +10220,7 @@
       </c>
       <c r="H66" s="55"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="56"/>
       <c r="B67" s="68">
         <v>65</v>
@@ -10262,7 +10245,7 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="56"/>
       <c r="B68" s="68">
         <v>66</v>
@@ -10287,7 +10270,7 @@
       </c>
       <c r="H68" s="55"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="56"/>
       <c r="B69" s="68">
         <v>67</v>
@@ -10312,7 +10295,7 @@
       </c>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="56"/>
       <c r="B70" s="68">
         <v>68</v>
@@ -10337,7 +10320,7 @@
       </c>
       <c r="H70" s="55"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="56"/>
       <c r="B71" s="68">
         <v>69</v>
@@ -10362,7 +10345,7 @@
       </c>
       <c r="H71" s="55"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="56"/>
       <c r="B72" s="68">
         <v>70</v>
@@ -10387,7 +10370,7 @@
       </c>
       <c r="H72" s="55"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="56"/>
       <c r="B73" s="68">
         <v>71</v>
@@ -10412,7 +10395,7 @@
       </c>
       <c r="H73" s="55"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="56"/>
       <c r="B74" s="68">
         <v>72</v>
@@ -10437,7 +10420,7 @@
       </c>
       <c r="H74" s="55"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="56"/>
       <c r="B75" s="68">
         <v>73</v>
@@ -10462,7 +10445,7 @@
       </c>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="56"/>
       <c r="B76" s="68">
         <v>74</v>
@@ -10487,7 +10470,7 @@
       </c>
       <c r="H76" s="55"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="56"/>
       <c r="B77" s="68">
         <v>75</v>
@@ -10512,7 +10495,7 @@
       </c>
       <c r="H77" s="55"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="56"/>
       <c r="B78" s="68">
         <v>76</v>
@@ -10537,7 +10520,7 @@
       </c>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="56"/>
       <c r="B79" s="68">
         <v>77</v>
@@ -10562,7 +10545,7 @@
       </c>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="56"/>
       <c r="B80" s="68">
         <v>78</v>
@@ -10587,7 +10570,7 @@
       </c>
       <c r="H80" s="55"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="56"/>
       <c r="B81" s="68">
         <v>79</v>
@@ -10612,7 +10595,7 @@
       </c>
       <c r="H81" s="55"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="56"/>
       <c r="B82" s="68">
         <v>80</v>
@@ -10637,7 +10620,7 @@
       </c>
       <c r="H82" s="55"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="56"/>
       <c r="B83" s="68">
         <v>81</v>
@@ -10662,7 +10645,7 @@
       </c>
       <c r="H83" s="55"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="56"/>
       <c r="B84" s="68">
         <v>82</v>
@@ -10687,7 +10670,7 @@
       </c>
       <c r="H84" s="55"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="56"/>
       <c r="B85" s="68">
         <v>83</v>
@@ -10712,7 +10695,7 @@
       </c>
       <c r="H85" s="55"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="56"/>
       <c r="B86" s="68">
         <v>84</v>
@@ -10737,7 +10720,7 @@
       </c>
       <c r="H86" s="55"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="56"/>
       <c r="B87" s="68">
         <v>85</v>
@@ -10762,7 +10745,7 @@
       </c>
       <c r="H87" s="55"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="56"/>
       <c r="B88" s="68">
         <v>86</v>
@@ -10787,7 +10770,7 @@
       </c>
       <c r="H88" s="55"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="56"/>
       <c r="B89" s="68">
         <v>87</v>
@@ -10812,7 +10795,7 @@
       </c>
       <c r="H89" s="55"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="56"/>
       <c r="B90" s="68">
         <v>88</v>
@@ -10837,7 +10820,7 @@
       </c>
       <c r="H90" s="55"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="56"/>
       <c r="B91" s="68">
         <v>89</v>
@@ -10862,7 +10845,7 @@
       </c>
       <c r="H91" s="55"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="56"/>
       <c r="B92" s="68">
         <v>90</v>
@@ -10887,7 +10870,7 @@
       </c>
       <c r="H92" s="55"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="56"/>
       <c r="B93" s="68">
         <v>91</v>
@@ -10912,7 +10895,7 @@
       </c>
       <c r="H93" s="55"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="56"/>
       <c r="B94" s="68">
         <v>92</v>
@@ -10937,7 +10920,7 @@
       </c>
       <c r="H94" s="55"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="56"/>
       <c r="B95" s="68">
         <v>93</v>
@@ -10962,7 +10945,7 @@
       </c>
       <c r="H95" s="55"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="56"/>
       <c r="B96" s="68">
         <v>94</v>
@@ -10987,7 +10970,7 @@
       </c>
       <c r="H96" s="55"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="56"/>
       <c r="B97" s="68">
         <v>95</v>
@@ -11012,7 +10995,7 @@
       </c>
       <c r="H97" s="55"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="56"/>
       <c r="B98" s="68">
         <v>96</v>
@@ -11037,7 +11020,7 @@
       </c>
       <c r="H98" s="55"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="56"/>
       <c r="B99" s="68">
         <v>97</v>
@@ -11062,7 +11045,7 @@
       </c>
       <c r="H99" s="55"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="56"/>
       <c r="B100" s="68">
         <v>98</v>
@@ -11087,7 +11070,7 @@
       </c>
       <c r="H100" s="55"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="56"/>
       <c r="B101" s="68">
         <v>99</v>
@@ -11112,7 +11095,7 @@
       </c>
       <c r="H101" s="55"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="56"/>
       <c r="B102" s="68">
         <v>100</v>
@@ -11137,7 +11120,7 @@
       </c>
       <c r="H102" s="55"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="56"/>
       <c r="B103" s="68">
         <v>101</v>
@@ -11162,7 +11145,7 @@
       </c>
       <c r="H103" s="55"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="56"/>
       <c r="B104" s="68">
         <v>102</v>
@@ -11187,7 +11170,7 @@
       </c>
       <c r="H104" s="55"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="56"/>
       <c r="B105" s="68">
         <v>103</v>
@@ -11212,7 +11195,7 @@
       </c>
       <c r="H105" s="55"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="56"/>
       <c r="B106" s="68">
         <v>104</v>
@@ -11237,7 +11220,7 @@
       </c>
       <c r="H106" s="55"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="56"/>
       <c r="B107" s="68">
         <v>105</v>
@@ -11262,7 +11245,7 @@
       </c>
       <c r="H107" s="55"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="56"/>
       <c r="B108" s="68">
         <v>106</v>
@@ -11287,7 +11270,7 @@
       </c>
       <c r="H108" s="55"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="56"/>
       <c r="B109" s="68">
         <v>107</v>
@@ -11312,7 +11295,7 @@
       </c>
       <c r="H109" s="55"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="56"/>
       <c r="B110" s="68">
         <v>108</v>
@@ -11337,7 +11320,7 @@
       </c>
       <c r="H110" s="55"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="56"/>
       <c r="B111" s="68">
         <v>109</v>
@@ -11362,7 +11345,7 @@
       </c>
       <c r="H111" s="55"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="56"/>
       <c r="B112" s="68">
         <v>110</v>
@@ -11387,7 +11370,7 @@
       </c>
       <c r="H112" s="55"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="56"/>
       <c r="B113" s="68">
         <v>111</v>
@@ -11412,7 +11395,7 @@
       </c>
       <c r="H113" s="55"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="56"/>
       <c r="B114" s="68">
         <v>112</v>
@@ -11437,7 +11420,7 @@
       </c>
       <c r="H114" s="55"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="56"/>
       <c r="B115" s="68">
         <v>113</v>
@@ -11462,7 +11445,7 @@
       </c>
       <c r="H115" s="55"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="56"/>
       <c r="B116" s="68">
         <v>114</v>
@@ -11487,7 +11470,7 @@
       </c>
       <c r="H116" s="55"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="56"/>
       <c r="B117" s="68">
         <v>115</v>
@@ -11512,7 +11495,7 @@
       </c>
       <c r="H117" s="55"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="56"/>
       <c r="B118" s="68">
         <v>116</v>
@@ -11537,7 +11520,7 @@
       </c>
       <c r="H118" s="55"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="56"/>
       <c r="B119" s="68">
         <v>117</v>
@@ -11562,7 +11545,7 @@
       </c>
       <c r="H119" s="55"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="56"/>
       <c r="B120" s="68">
         <v>118</v>
@@ -11587,7 +11570,7 @@
       </c>
       <c r="H120" s="55"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="56"/>
       <c r="B121" s="68">
         <v>119</v>
@@ -11612,7 +11595,7 @@
       </c>
       <c r="H121" s="55"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="56"/>
       <c r="B122" s="68">
         <v>120</v>
@@ -11637,7 +11620,7 @@
       </c>
       <c r="H122" s="55"/>
     </row>
-    <row r="123" spans="1:8" ht="12" thickBot="1">
+    <row r="123" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57"/>
       <c r="B123" s="58"/>
       <c r="C123" s="58"/>
@@ -11664,7 +11647,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="28" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="28" bestFit="1" customWidth="1"/>
@@ -11674,30 +11657,30 @@
     <col min="6" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="42"/>
       <c r="B2" s="69" t="str">
         <f>Currency&amp;"_010_"&amp;"FuturesHWConvAdj.xml"</f>
         <v>GBP_010_FuturesHWConvAdj.xml</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="70" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="D2" s="61" t="str">
-        <f>_xll.ohRangeRetrieveError(C2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(C2)</f>
         <v/>
       </c>
       <c r="E2" s="43"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="29" t="str">
         <f>Currency&amp;"HW_Volatility"&amp;QuoteSuffix</f>
@@ -11713,7 +11696,7 @@
       </c>
       <c r="E3" s="43"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="29" t="str">
         <f>Currency&amp;"HW_MeanReversion"&amp;QuoteSuffix</f>
@@ -11729,7 +11712,7 @@
       </c>
       <c r="E4" s="43"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/GBP_010_DepoFRAFuturesQuotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Currency</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>x15F</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1298,9 @@
       <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>61</v>
+      <c r="D8" s="23" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -1438,12 +1436,12 @@
         <v>GBP_010_Deposits.xml</v>
       </c>
       <c r="D2" s="72" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="34"/>
     </row>
@@ -1844,12 +1842,12 @@
         <v>GBP_010_FRA.xml</v>
       </c>
       <c r="E2" s="80" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(E3:E26,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" s="75" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(E3:E26,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" s="75" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(E2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2450,12 +2448,12 @@
         <v>GBP_010_FUT1M.xml</v>
       </c>
       <c r="F2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -5530,12 +5528,12 @@
         <v>GBP_010_FUT3M.xml</v>
       </c>
       <c r="F2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -8610,12 +8608,12 @@
         <v>GBP_010_IMMFRA6M.xml</v>
       </c>
       <c r="F2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -11671,12 +11669,12 @@
         <v>GBP_010_FuturesHWConvAdj.xml</v>
       </c>
       <c r="C2" s="70" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" s="61" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="61" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E2" s="43"/>
     </row>
